--- a/data/trans_orig/P36B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>84071</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58325</v>
+        <v>61067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111162</v>
+        <v>115192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2061608452122339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1430260409576342</v>
+        <v>0.149750162266533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2725942905666915</v>
+        <v>0.2824773254582142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -762,19 +762,19 @@
         <v>50071</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34751</v>
+        <v>34573</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69885</v>
+        <v>69530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1384813805218789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09611247075810632</v>
+        <v>0.09561961151111262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1932836977944761</v>
+        <v>0.1923010990555668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -783,19 +783,19 @@
         <v>134142</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106230</v>
+        <v>107858</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>167210</v>
+        <v>170957</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1743542649122922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1380748176808224</v>
+        <v>0.1401913486663978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.217335783255985</v>
+        <v>0.2222057415628086</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>93909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67731</v>
+        <v>68140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121585</v>
+        <v>120286</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2302866073008998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1660914371018001</v>
+        <v>0.1670950691441415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2981546620771126</v>
+        <v>0.2949675198946511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -833,19 +833,19 @@
         <v>120095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95209</v>
+        <v>97813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147025</v>
+        <v>148077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3321507447969814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2633231539151418</v>
+        <v>0.2705247519619515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4066307407948305</v>
+        <v>0.409538875478175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -854,19 +854,19 @@
         <v>214005</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>179883</v>
+        <v>178357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256310</v>
+        <v>253054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.278158585659132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2338080771721993</v>
+        <v>0.2318240061799423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3331459732995756</v>
+        <v>0.3289141229272846</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>159534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129730</v>
+        <v>127486</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>190720</v>
+        <v>189669</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3912138835579218</v>
+        <v>0.3912138835579219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3181263655689565</v>
+        <v>0.3126253062288268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.467688015120311</v>
+        <v>0.4651103891257543</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -904,19 +904,19 @@
         <v>141515</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115201</v>
+        <v>118055</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167812</v>
+        <v>169903</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3913924855004437</v>
+        <v>0.3913924855004438</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.318615347013508</v>
+        <v>0.326508452830812</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4641215699719738</v>
+        <v>0.4699059098800203</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>143</v>
@@ -925,19 +925,19 @@
         <v>301050</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261425</v>
+        <v>259737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>343308</v>
+        <v>343292</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3912978191660496</v>
+        <v>0.3912978191660497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3397941269318485</v>
+        <v>0.3376007777016321</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4462237856087679</v>
+        <v>0.4462037420798177</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>51114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31410</v>
+        <v>32183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80192</v>
+        <v>79259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1253438035101933</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07702397578501415</v>
+        <v>0.0789197808453183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1966494551083469</v>
+        <v>0.1943605708016117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -975,19 +975,19 @@
         <v>37829</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23338</v>
+        <v>25005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56478</v>
+        <v>57376</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1046254996262329</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06454760791401304</v>
+        <v>0.06915673728396483</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1562017811084473</v>
+        <v>0.1586871192792843</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -996,19 +996,19 @@
         <v>88944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62839</v>
+        <v>63352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120024</v>
+        <v>120832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1156070480677748</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08167700453764851</v>
+        <v>0.08234391942849249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1560041411542144</v>
+        <v>0.1570553798193003</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>19164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9009</v>
+        <v>9137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36431</v>
+        <v>37089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04699486041875139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02209252509171318</v>
+        <v>0.022405782986817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08933585459551616</v>
+        <v>0.09095033790429757</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>12058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4245</v>
+        <v>4263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24444</v>
+        <v>23442</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03334988955446309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01173953970901664</v>
+        <v>0.01179071677119736</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06760492700906832</v>
+        <v>0.06483501527871263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1067,19 +1067,19 @@
         <v>31222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17781</v>
+        <v>16351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52941</v>
+        <v>50158</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04058228219475134</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02311173636862172</v>
+        <v>0.02125303816830438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06881109112638148</v>
+        <v>0.06519486302389658</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>69628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53108</v>
+        <v>50873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92311</v>
+        <v>90010</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1464915047643697</v>
+        <v>0.1464915047643696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1117355922259292</v>
+        <v>0.1070318952718641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1942155610013223</v>
+        <v>0.1893744609375904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1192,19 +1192,19 @@
         <v>89729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73505</v>
+        <v>71077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110523</v>
+        <v>107240</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1797696409117899</v>
+        <v>0.1797696409117898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1472646382988814</v>
+        <v>0.1424007368655455</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2214296666674985</v>
+        <v>0.2148521260221637</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1213,19 +1213,19 @@
         <v>159357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132815</v>
+        <v>134966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187932</v>
+        <v>188812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1635374897288941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1362994360214528</v>
+        <v>0.1385067408495665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1928617617480905</v>
+        <v>0.1937647617191988</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>137090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112409</v>
+        <v>111303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165399</v>
+        <v>161969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2884250323308664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2364994662799943</v>
+        <v>0.2341726372290822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3479862093850553</v>
+        <v>0.340769171717186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -1263,19 +1263,19 @@
         <v>192408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170006</v>
+        <v>169766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215602</v>
+        <v>216626</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3854841961203813</v>
+        <v>0.3854841961203812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3406016327821222</v>
+        <v>0.3401217275440157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.431952421353016</v>
+        <v>0.4340041395087965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>274</v>
@@ -1284,19 +1284,19 @@
         <v>329498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298341</v>
+        <v>295866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>362798</v>
+        <v>362244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3381414298867926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3061666107996336</v>
+        <v>0.3036274997041256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3723143743887642</v>
+        <v>0.3717458408179245</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>201911</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>174104</v>
+        <v>173751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>232467</v>
+        <v>230023</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4248042141108595</v>
+        <v>0.4248042141108594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3663007218445907</v>
+        <v>0.3655568960070279</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4890907381278399</v>
+        <v>0.4839482447178993</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -1334,19 +1334,19 @@
         <v>179297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>156889</v>
+        <v>158290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>202479</v>
+        <v>205035</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3592157526126623</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.314322748463813</v>
+        <v>0.3171295640109805</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4056597285107974</v>
+        <v>0.4107824478214375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>280</v>
@@ -1355,19 +1355,19 @@
         <v>381208</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>347177</v>
+        <v>346476</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>418772</v>
+        <v>418013</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3912079837332988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3562836656768133</v>
+        <v>0.3555641838866649</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4297571195301303</v>
+        <v>0.4289776972531814</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>54934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38663</v>
+        <v>40613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75284</v>
+        <v>74781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.11557574805362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08134401975632453</v>
+        <v>0.08544622438595052</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1583915535728512</v>
+        <v>0.1573338885392258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1405,19 +1405,19 @@
         <v>30209</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19673</v>
+        <v>20524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42012</v>
+        <v>41687</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06052345307147526</v>
+        <v>0.06052345307147525</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03941490699315572</v>
+        <v>0.04111996944206596</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08416921500490906</v>
+        <v>0.08351847799546251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1426,19 +1426,19 @@
         <v>85143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66407</v>
+        <v>65250</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110209</v>
+        <v>105783</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08737643459534655</v>
+        <v>0.08737643459534654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06814935910544752</v>
+        <v>0.06696129248582602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1131000955965785</v>
+        <v>0.1085582708244226</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>11742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4763</v>
+        <v>4857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23676</v>
+        <v>23209</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02470350074028457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01002092655673156</v>
+        <v>0.01021927879504222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04981316100443992</v>
+        <v>0.04883081818957005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1476,19 +1476,19 @@
         <v>7490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3170</v>
+        <v>3206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15076</v>
+        <v>14514</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0150069572836915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006351898940831585</v>
+        <v>0.006423526896146995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03020505366044413</v>
+        <v>0.02907794391701489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1497,19 +1497,19 @@
         <v>19232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11294</v>
+        <v>10796</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32845</v>
+        <v>33473</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01973666205566801</v>
+        <v>0.01973666205566802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01158996393097613</v>
+        <v>0.0110789743418379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03370707616266629</v>
+        <v>0.0343512585934352</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>120913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99486</v>
+        <v>101918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142282</v>
+        <v>144301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1947583914819186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.160245045601664</v>
+        <v>0.164162222983284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2291774044200208</v>
+        <v>0.2324291426974539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1622,19 +1622,19 @@
         <v>128126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111953</v>
+        <v>110945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146457</v>
+        <v>146845</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2065653767652718</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1804903459974612</v>
+        <v>0.1788665737296465</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2361190162550489</v>
+        <v>0.2367439855691289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -1643,19 +1643,19 @@
         <v>249039</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>222019</v>
+        <v>220484</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>276545</v>
+        <v>276191</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2006591820748997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1788876304025442</v>
+        <v>0.1776512246818589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2228212077279392</v>
+        <v>0.222535929666746</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>231801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207240</v>
+        <v>206435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>257064</v>
+        <v>257165</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3733684584506448</v>
+        <v>0.3733684584506449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3338075153521913</v>
+        <v>0.3325110322208753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4140603125883149</v>
+        <v>0.4142230802419246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>330</v>
@@ -1693,19 +1693,19 @@
         <v>236921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>217649</v>
+        <v>217824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257870</v>
+        <v>258269</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3819650095141073</v>
+        <v>0.3819650095141074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3508952691933934</v>
+        <v>0.3511759564615104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.415739009300349</v>
+        <v>0.4163821046267275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>536</v>
@@ -1714,19 +1714,19 @@
         <v>468722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>436552</v>
+        <v>434951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>501427</v>
+        <v>502498</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3776647666470208</v>
+        <v>0.3776647666470209</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3517442546930276</v>
+        <v>0.3504543131563458</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4040165307399822</v>
+        <v>0.4048793764647151</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>212247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>187968</v>
+        <v>188136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>241054</v>
+        <v>238309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3418719288096242</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3027655364022168</v>
+        <v>0.3030353913232793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3882731061109776</v>
+        <v>0.3838511940218443</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>277</v>
@@ -1764,19 +1764,19 @@
         <v>207430</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>188640</v>
+        <v>185147</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>227820</v>
+        <v>226153</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3344197372075781</v>
+        <v>0.3344197372075782</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3041258321343714</v>
+        <v>0.2984941222379041</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3672919115459827</v>
+        <v>0.3646043215396489</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>459</v>
@@ -1785,19 +1785,19 @@
         <v>419677</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>387559</v>
+        <v>388965</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>450446</v>
+        <v>450707</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3381475384553442</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.312269173850783</v>
+        <v>0.3134019949275786</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3629394743019064</v>
+        <v>0.3631497182177779</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>42586</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31639</v>
+        <v>31193</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58671</v>
+        <v>55806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06859486882123456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05096163695571181</v>
+        <v>0.05024396174310797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09450312740047445</v>
+        <v>0.08988906583630112</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1835,19 +1835,19 @@
         <v>38867</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29231</v>
+        <v>30178</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50038</v>
+        <v>50735</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06266229679333907</v>
+        <v>0.06266229679333905</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04712632740596648</v>
+        <v>0.0486529764294562</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08067113633978587</v>
+        <v>0.081795140583105</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -1856,19 +1856,19 @@
         <v>81454</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66027</v>
+        <v>65635</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98356</v>
+        <v>100493</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06562994048650161</v>
+        <v>0.06562994048650163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05319977792733432</v>
+        <v>0.05288445825743163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07924833938861804</v>
+        <v>0.08097016869866336</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>13290</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7253</v>
+        <v>7209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23990</v>
+        <v>22758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02140635243657788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01168191556361703</v>
+        <v>0.01161236934949257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03864181341228528</v>
+        <v>0.03665701423775639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1906,19 +1906,19 @@
         <v>8924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4723</v>
+        <v>4638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15328</v>
+        <v>15071</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01438757971970365</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00761488233615537</v>
+        <v>0.007476947737003364</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02471253262870915</v>
+        <v>0.02429806303836642</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1927,19 +1927,19 @@
         <v>22214</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13735</v>
+        <v>14359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33148</v>
+        <v>33561</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01789857233623363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01106713166364976</v>
+        <v>0.01156917257036411</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02670879045701276</v>
+        <v>0.02704130642525415</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>157865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135091</v>
+        <v>136003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180618</v>
+        <v>181544</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2253226040221149</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1928166760814595</v>
+        <v>0.1941192636488954</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2577984842058171</v>
+        <v>0.2591201362229327</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -2052,19 +2052,19 @@
         <v>179659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161920</v>
+        <v>162065</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199900</v>
+        <v>199204</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2441647482199503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2200564900565897</v>
+        <v>0.2202532752535269</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2716721636897609</v>
+        <v>0.2707268469834818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>424</v>
@@ -2073,19 +2073,19 @@
         <v>337524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>308802</v>
+        <v>310083</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>366579</v>
+        <v>370457</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2349745050587951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2149792358030841</v>
+        <v>0.2158710028523924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2552013159117064</v>
+        <v>0.2579010959628317</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>236271</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211997</v>
+        <v>211375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>263579</v>
+        <v>263929</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3372321521875916</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3025864914091106</v>
+        <v>0.3016977939929339</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3762092722176952</v>
+        <v>0.3767099461744972</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>445</v>
@@ -2123,19 +2123,19 @@
         <v>282144</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261963</v>
+        <v>260315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>303584</v>
+        <v>301889</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.38344610076912</v>
+        <v>0.3834461007691199</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.356019263739262</v>
+        <v>0.3537787996806773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4125838987396707</v>
+        <v>0.4102803447081992</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>675</v>
@@ -2144,19 +2144,19 @@
         <v>518415</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>485501</v>
+        <v>484258</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>554285</v>
+        <v>551838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3609052784273528</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3379914357506263</v>
+        <v>0.3371264408277905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3858768003663892</v>
+        <v>0.384173458658312</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>244116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>218366</v>
+        <v>218000</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>271617</v>
+        <v>271655</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3484303469955329</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3116768746752391</v>
+        <v>0.3111546185038972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3876830216658834</v>
+        <v>0.3877361196828885</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>362</v>
@@ -2194,19 +2194,19 @@
         <v>233004</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>212904</v>
+        <v>212827</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>252396</v>
+        <v>253252</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3166627894474996</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2893461041767057</v>
+        <v>0.2892404876801797</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3430174002264759</v>
+        <v>0.3441797793256636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>588</v>
@@ -2215,19 +2215,19 @@
         <v>477121</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>445573</v>
+        <v>443197</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>509746</v>
+        <v>506956</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3321573942778753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3101948724594875</v>
+        <v>0.3085409260821358</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3548704868340412</v>
+        <v>0.3529279858734027</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>35144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23697</v>
+        <v>24447</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47885</v>
+        <v>48006</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.050161981895804</v>
+        <v>0.05016198189580399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03382308284086981</v>
+        <v>0.03489378212494672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06834754549831284</v>
+        <v>0.06851916484087672</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2265,19 +2265,19 @@
         <v>32868</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24127</v>
+        <v>24631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42264</v>
+        <v>43637</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04466943626128293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03279019358763631</v>
+        <v>0.03347427456271491</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05743861468500536</v>
+        <v>0.05930489646753929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -2286,19 +2286,19 @@
         <v>68013</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54563</v>
+        <v>54110</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85913</v>
+        <v>83862</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04734842170078449</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03798528357283915</v>
+        <v>0.03766980491226316</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05981013160315314</v>
+        <v>0.05838259851759047</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>27221</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17790</v>
+        <v>18257</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39270</v>
+        <v>40700</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03885291489895665</v>
+        <v>0.03885291489895664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02539193101737695</v>
+        <v>0.02605801369194753</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05605025815801624</v>
+        <v>0.05809148017738309</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2336,19 +2336,19 @@
         <v>8136</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4494</v>
+        <v>4612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13655</v>
+        <v>14118</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01105692530214715</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006107813887109118</v>
+        <v>0.00626767532776071</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01855749609214789</v>
+        <v>0.01918650391011877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -2357,19 +2357,19 @@
         <v>35357</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26128</v>
+        <v>25286</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49237</v>
+        <v>48523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02461440053519229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01818945815850001</v>
+        <v>0.0176031162340515</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03427704784021888</v>
+        <v>0.03378026456385436</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>172826</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>150580</v>
+        <v>151132</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>194666</v>
+        <v>194461</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.284018972814143</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2474613330696512</v>
+        <v>0.2483684661944898</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3199104419362865</v>
+        <v>0.3195731945840589</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>330</v>
@@ -2482,19 +2482,19 @@
         <v>204144</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186977</v>
+        <v>187357</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223028</v>
+        <v>221775</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3361431650077764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3078768914443519</v>
+        <v>0.3085024212477986</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3672375916620999</v>
+        <v>0.3651748754676285</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>518</v>
@@ -2503,19 +2503,19 @@
         <v>376970</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>348677</v>
+        <v>347125</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>405210</v>
+        <v>404979</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3100555772907159</v>
+        <v>0.3100555772907158</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.286784771017791</v>
+        <v>0.2855087076735434</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3332831105003282</v>
+        <v>0.333093200065861</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>211520</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>189558</v>
+        <v>190425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>234560</v>
+        <v>234508</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3476088930004415</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3115170483291955</v>
+        <v>0.3129412454414376</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3854718727713771</v>
+        <v>0.3853856033630636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>383</v>
@@ -2553,19 +2553,19 @@
         <v>227123</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>208945</v>
+        <v>210024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>246592</v>
+        <v>247217</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3739804084655697</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3440496711911102</v>
+        <v>0.3458251528783378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4060385794636253</v>
+        <v>0.4070669538040831</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>620</v>
@@ -2574,19 +2574,19 @@
         <v>438643</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>409355</v>
+        <v>408240</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>468679</v>
+        <v>465568</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3607817535996555</v>
+        <v>0.3607817535996554</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3366926554415605</v>
+        <v>0.3357753233596681</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3854858150726572</v>
+        <v>0.3829274978607636</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>183508</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>161386</v>
+        <v>163564</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>201882</v>
+        <v>207624</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3015742839436075</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2652186123085827</v>
+        <v>0.2687988596661851</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3317698666612909</v>
+        <v>0.3412057280733833</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>242</v>
@@ -2624,19 +2624,19 @@
         <v>148385</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>133744</v>
+        <v>132641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>166881</v>
+        <v>165139</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.244330870874249</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2202222367846131</v>
+        <v>0.2184069374973941</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2747860939914139</v>
+        <v>0.271917887742905</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>438</v>
@@ -2645,19 +2645,19 @@
         <v>331893</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>305017</v>
+        <v>304365</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>361577</v>
+        <v>362195</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2729805726120386</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2508745890078484</v>
+        <v>0.2503386767545718</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2973951271787224</v>
+        <v>0.297903471018425</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>31368</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21823</v>
+        <v>22832</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42406</v>
+        <v>45117</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05154918605430951</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03586289916345613</v>
+        <v>0.03752144709514833</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06968982141327083</v>
+        <v>0.07414523068231482</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -2695,19 +2695,19 @@
         <v>19085</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12939</v>
+        <v>13047</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26688</v>
+        <v>26458</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03142463658170051</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0213059992288307</v>
+        <v>0.02148294445145498</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04394438257502929</v>
+        <v>0.0435660078146241</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -2716,19 +2716,19 @@
         <v>50452</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38908</v>
+        <v>39204</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63601</v>
+        <v>64117</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04149675333859362</v>
+        <v>0.0414967533385936</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03200160265975192</v>
+        <v>0.03224484727016784</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05231140568719963</v>
+        <v>0.05273554607739659</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>9279</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4300</v>
+        <v>4512</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17078</v>
+        <v>16587</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01524866418749855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007067169708001808</v>
+        <v>0.007414459822055628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0280656883975612</v>
+        <v>0.02725865668699731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2766,19 +2766,19 @@
         <v>8576</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4816</v>
+        <v>4821</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14600</v>
+        <v>14644</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0141209190707043</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007930160933700092</v>
+        <v>0.007938615022283288</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0240405662211973</v>
+        <v>0.02411360727721386</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2787,19 +2787,19 @@
         <v>17855</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11932</v>
+        <v>11381</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26581</v>
+        <v>26730</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01468534315899646</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009814149446767071</v>
+        <v>0.009361040824806341</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02186249485602043</v>
+        <v>0.02198565134031652</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>156697</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>139912</v>
+        <v>141249</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>172927</v>
+        <v>173779</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3862633187912991</v>
+        <v>0.386263318791299</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3448871982484869</v>
+        <v>0.3481824235200887</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4262720735590889</v>
+        <v>0.4283710033299951</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>346</v>
@@ -2912,19 +2912,19 @@
         <v>186307</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>171500</v>
+        <v>171774</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>200685</v>
+        <v>201733</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4266838453513923</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3927714541699053</v>
+        <v>0.3934004928803678</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4596115539080475</v>
+        <v>0.4620120433850382</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>570</v>
@@ -2933,19 +2933,19 @@
         <v>343004</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>321972</v>
+        <v>320988</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>366939</v>
+        <v>364614</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4072165786209329</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3822480257190638</v>
+        <v>0.3810791760124152</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4356324040769106</v>
+        <v>0.4328725656179338</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>130330</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>114245</v>
+        <v>114884</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>146316</v>
+        <v>146893</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3212665840586709</v>
+        <v>0.3212665840586707</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2816166226197135</v>
+        <v>0.2831920307180875</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3606744102252854</v>
+        <v>0.3620967943188712</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>282</v>
@@ -2983,19 +2983,19 @@
         <v>145402</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>131367</v>
+        <v>130282</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>160058</v>
+        <v>158861</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3330030279892711</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3008595691150673</v>
+        <v>0.2983738338801902</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3665679990988062</v>
+        <v>0.3638269042489127</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>469</v>
@@ -3004,19 +3004,19 @@
         <v>275732</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>257667</v>
+        <v>253767</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>297181</v>
+        <v>296731</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3273505413962426</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3059038786782134</v>
+        <v>0.3012737860868915</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3528155889931549</v>
+        <v>0.3522810931813958</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>90922</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>76632</v>
+        <v>77343</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>105210</v>
+        <v>104919</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2241248950484484</v>
+        <v>0.2241248950484483</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1889010745289583</v>
+        <v>0.1906537958456123</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2593463739227981</v>
+        <v>0.2586283786361973</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>174</v>
@@ -3054,19 +3054,19 @@
         <v>93617</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>81353</v>
+        <v>82417</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>105792</v>
+        <v>106907</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2144027600176812</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1863157106709255</v>
+        <v>0.1887528567675139</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2422875272464425</v>
+        <v>0.2448394742022481</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>295</v>
@@ -3075,19 +3075,19 @@
         <v>184538</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>164975</v>
+        <v>166655</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>204339</v>
+        <v>205041</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2190851185107629</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1958599036684602</v>
+        <v>0.1978542668108405</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2425921451441806</v>
+        <v>0.2434261874643565</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>23105</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15946</v>
+        <v>15759</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32869</v>
+        <v>32954</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05695529102298658</v>
+        <v>0.05695529102298656</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03930795904930698</v>
+        <v>0.03884553815406799</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08102259256366041</v>
+        <v>0.08123359642007265</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -3125,19 +3125,19 @@
         <v>8973</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5496</v>
+        <v>5387</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14240</v>
+        <v>14687</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02055001181458171</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01258751976820074</v>
+        <v>0.01233774220822418</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0326123519895397</v>
+        <v>0.03363644216701077</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>45</v>
@@ -3146,19 +3146,19 @@
         <v>32078</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23368</v>
+        <v>23956</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42644</v>
+        <v>41769</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03808346179805043</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02774212443031792</v>
+        <v>0.02844128587537408</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05062746652296354</v>
+        <v>0.04958864995853569</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>4621</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2076</v>
+        <v>1950</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9729</v>
+        <v>9683</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01138991107859529</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005116432808816142</v>
+        <v>0.004805925047695394</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0239834166074698</v>
+        <v>0.02386777089108213</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -3196,19 +3196,19 @@
         <v>2341</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5472</v>
+        <v>5342</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00536035482707355</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001403654762246676</v>
+        <v>0.001402326458332934</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01253097571277964</v>
+        <v>0.01223328387640194</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -3217,19 +3217,19 @@
         <v>6961</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3762</v>
+        <v>3527</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11965</v>
+        <v>11892</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008264299674011032</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004466145387135668</v>
+        <v>0.004186938370270273</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01420486157238659</v>
+        <v>0.01411859248731859</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>154090</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>139071</v>
+        <v>138194</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>167618</v>
+        <v>168375</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.4976012001503923</v>
+        <v>0.4976012001503924</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.449100908522136</v>
+        <v>0.4462681416114259</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5412869221674216</v>
+        <v>0.5437323462356947</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>502</v>
@@ -3342,19 +3342,19 @@
         <v>261912</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>246322</v>
+        <v>245244</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>277157</v>
+        <v>277612</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5649516348170944</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5313234742753479</v>
+        <v>0.528999479781312</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5978356444865583</v>
+        <v>0.598817495128832</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>743</v>
@@ -3363,19 +3363,19 @@
         <v>416001</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>395156</v>
+        <v>395519</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>438197</v>
+        <v>437836</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5379801892640683</v>
+        <v>0.5379801892640682</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5110232736628223</v>
+        <v>0.5114927844940027</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5666847277775215</v>
+        <v>0.5662174571188193</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>88233</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>75091</v>
+        <v>76220</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>102703</v>
+        <v>103564</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2849297064987103</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2424905865202663</v>
+        <v>0.2461374298265219</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3316593472153709</v>
+        <v>0.3344380008830402</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>247</v>
@@ -3413,19 +3413,19 @@
         <v>126568</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>114466</v>
+        <v>112850</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>141742</v>
+        <v>141605</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2730120036118097</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.246906803932103</v>
+        <v>0.2434202031278639</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3057411861718564</v>
+        <v>0.3054455805091253</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>371</v>
@@ -3434,19 +3434,19 @@
         <v>214801</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>195400</v>
+        <v>196428</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>233047</v>
+        <v>236317</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2777846183116537</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.252694947122008</v>
+        <v>0.2540242225733351</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3013805336869933</v>
+        <v>0.3056097317143876</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>56152</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>45326</v>
+        <v>44766</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>68089</v>
+        <v>68196</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.181333039651702</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1463715485631643</v>
+        <v>0.1445629591903335</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.219878437577065</v>
+        <v>0.2202243289184668</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>102</v>
@@ -3484,19 +3484,19 @@
         <v>59160</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>48865</v>
+        <v>49243</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>70844</v>
+        <v>71684</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1276098968162235</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1054030690364161</v>
+        <v>0.1062182690691672</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1528130146728381</v>
+        <v>0.154624019812863</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>179</v>
@@ -3505,19 +3505,19 @@
         <v>115312</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>99631</v>
+        <v>99749</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>132898</v>
+        <v>133313</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1491240983072042</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1288448476496827</v>
+        <v>0.1289966827193426</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1718663464802984</v>
+        <v>0.1724023229200956</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>8469</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4595</v>
+        <v>4494</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14980</v>
+        <v>14677</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02735013852399358</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01483880172029402</v>
+        <v>0.01451396751869097</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04837599350915984</v>
+        <v>0.04739755403518972</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>22</v>
@@ -3555,19 +3555,19 @@
         <v>12568</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7889</v>
+        <v>8190</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>18935</v>
+        <v>18023</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02710873530901501</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01701604463892971</v>
+        <v>0.01766518572531203</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04084296291364545</v>
+        <v>0.03887515535573497</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>33</v>
@@ -3576,19 +3576,19 @@
         <v>21037</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>14268</v>
+        <v>14649</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>29229</v>
+        <v>28618</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02720540868167164</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01845142412011527</v>
+        <v>0.01894411124351146</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03779935357851247</v>
+        <v>0.03700936591386183</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>2721</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6591</v>
+        <v>6751</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.008785915175201664</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002146691924636926</v>
+        <v>0.002170880397705268</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02128545590290665</v>
+        <v>0.02180136586427107</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -3626,19 +3626,19 @@
         <v>3392</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1236</v>
+        <v>1196</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7402</v>
+        <v>6785</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.007317729445857228</v>
+        <v>0.007317729445857229</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002666692675361417</v>
+        <v>0.002580407641416298</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01596550276637708</v>
+        <v>0.01463511327891965</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3647,19 +3647,19 @@
         <v>6113</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3190</v>
+        <v>3017</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11098</v>
+        <v>11097</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.007905685435402184</v>
+        <v>0.007905685435402182</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004125898010909915</v>
+        <v>0.003901498198643674</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01435158215829881</v>
+        <v>0.01435066813864662</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>916089</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>860080</v>
+        <v>864568</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>971206</v>
+        <v>974442</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2596337738213987</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2437598947117518</v>
+        <v>0.2450318233298069</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2752547048936717</v>
+        <v>0.2761718992263952</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1743</v>
@@ -3772,19 +3772,19 @@
         <v>1099948</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1054164</v>
+        <v>1055706</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1149122</v>
+        <v>1153713</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2953406504566055</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2830476325452499</v>
+        <v>0.28346147909583</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3085441238636218</v>
+        <v>0.3097769097432232</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2737</v>
@@ -3793,19 +3793,19 @@
         <v>2016037</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1942847</v>
+        <v>1947560</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2092344</v>
+        <v>2089709</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2779695516955311</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2678780874257577</v>
+        <v>0.2685279753154809</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2884907046536124</v>
+        <v>0.2881273984820615</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>1129153</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1071633</v>
+        <v>1068184</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1188115</v>
+        <v>1190440</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3200192243438889</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3037172001221254</v>
+        <v>0.3027396497378378</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3367298959626191</v>
+        <v>0.3373888610740842</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1940</v>
@@ -3843,19 +3843,19 @@
         <v>1330663</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1278881</v>
+        <v>1282646</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1386834</v>
+        <v>1388509</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3572885403051387</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3433851012568202</v>
+        <v>0.3443958133024838</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3723708313212833</v>
+        <v>0.3728206530981555</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3058</v>
@@ -3864,19 +3864,19 @@
         <v>2459816</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2379238</v>
+        <v>2379193</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2537879</v>
+        <v>2533834</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.3391573277957192</v>
+        <v>0.3391573277957193</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3280473253799153</v>
+        <v>0.3280411736627454</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3499206542047343</v>
+        <v>0.3493628857018852</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>1148391</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1085940</v>
+        <v>1079971</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1213217</v>
+        <v>1216084</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.325471533224393</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.307771948338581</v>
+        <v>0.3060802988592747</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3438442034465036</v>
+        <v>0.3446569164018746</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1392</v>
@@ -3914,19 +3914,19 @@
         <v>1062408</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1011696</v>
+        <v>1008327</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1113125</v>
+        <v>1112775</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2852611745726528</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2716446122633556</v>
+        <v>0.2707399743784334</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2988786812713543</v>
+        <v>0.2987848170749672</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2382</v>
@@ -3935,19 +3935,19 @@
         <v>2210799</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2131440</v>
+        <v>2122391</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2297510</v>
+        <v>2295014</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3048231799111114</v>
+        <v>0.3048231799111115</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2938811616638131</v>
+        <v>0.2926335566300405</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3167787132504251</v>
+        <v>0.3164346645499578</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>246721</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>213267</v>
+        <v>214351</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>290072</v>
+        <v>287591</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.06992448198130206</v>
+        <v>0.06992448198130208</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06044309034121961</v>
+        <v>0.06075046889954769</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08221090670817305</v>
+        <v>0.08150772361184602</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>214</v>
@@ -3985,19 +3985,19 @@
         <v>180400</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>156605</v>
+        <v>156267</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>210341</v>
+        <v>209165</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.04843804332619727</v>
+        <v>0.04843804332619726</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04204921279646479</v>
+        <v>0.04195826456958254</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05647737176657187</v>
+        <v>0.05616169767781681</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>412</v>
@@ -4006,19 +4006,19 @@
         <v>427120</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>383579</v>
+        <v>383659</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>476666</v>
+        <v>472560</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.05889101718091899</v>
+        <v>0.05889101718091901</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05288751866950663</v>
+        <v>0.05289856561953755</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06572233205536662</v>
+        <v>0.06515618526834528</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>88037</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>66930</v>
+        <v>66516</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>115642</v>
+        <v>112765</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02495098662901734</v>
+        <v>0.02495098662901733</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0189689664542269</v>
+        <v>0.01885169971225846</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03277461169015598</v>
+        <v>0.03195945201876416</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>59</v>
@@ -4056,19 +4056,19 @@
         <v>50918</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>37881</v>
+        <v>39626</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>68113</v>
+        <v>69008</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01367159133940578</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01017108363908563</v>
+        <v>0.01063977367441938</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01828875277586612</v>
+        <v>0.01852895651630613</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>130</v>
@@ -4077,19 +4077,19 @@
         <v>138954</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>112401</v>
+        <v>115052</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>166188</v>
+        <v>166811</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01915892341671909</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01549776097791962</v>
+        <v>0.01586326842331608</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02291391310482664</v>
+        <v>0.02299970073225559</v>
       </c>
     </row>
     <row r="51">
